--- a/my_edits_arm_study.xlsx
+++ b/my_edits_arm_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessi/Documents/REU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E79607-C8F4-0D4C-8B2B-F01040711C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF25BED-C56E-6C4C-8C98-6FF9000A34C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="520" windowWidth="10200" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robot Arm Morphology Survey_Jul" sheetId="1" r:id="rId1"/>
@@ -6542,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECC00B0-3B52-E941-B871-DDB13A8FC4E8}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:F82"/>
+    <sheetView tabSelected="1" topLeftCell="F44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9106,8 +9106,8 @@
         <v>1</v>
       </c>
       <c r="T60">
-        <f ca="1">AVERAGE(P61:S61)</f>
-        <v>0</v>
+        <f>AVERAGE(P61:S61)</f>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
@@ -9153,23 +9153,23 @@
         <v>329</v>
       </c>
       <c r="P61">
-        <f ca="1">AVERAGE(P58:P61)</f>
-        <v>0</v>
+        <f>AVERAGE(P58:P60)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="Q61">
-        <f ca="1">AVERAGE(Q58:Q61)</f>
-        <v>0</v>
+        <f t="shared" ref="Q61:S61" si="19">AVERAGE(Q58:Q60)</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="R61">
-        <f ca="1">AVERAGE(R58:R61)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2.6666666666666665</v>
       </c>
       <c r="S61">
-        <f ca="1">AVERAGE(S58:S61)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>3</v>
       </c>
       <c r="T61" s="16">
-        <f ca="1">ROUND(AVERAGE(P61:S61),2)</f>
+        <f>ROUND(AVERAGE(P61:S61),2)</f>
         <v>2.83</v>
       </c>
     </row>
@@ -9263,19 +9263,19 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:F64" si="19">AVERAGE(C58:C63)</f>
+        <f t="shared" ref="C64:F64" si="20">AVERAGE(C58:C63)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="D64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="E64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.9583333333333335</v>
       </c>
       <c r="H64" s="12" t="s">
@@ -9286,19 +9286,19 @@
         <v>1.5</v>
       </c>
       <c r="J64">
-        <f t="shared" ref="J64:M64" si="20">AVERAGE(J58:J63)</f>
+        <f t="shared" ref="J64:M64" si="21">AVERAGE(J58:J63)</f>
         <v>6.666666666666667</v>
       </c>
       <c r="K64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.666666666666667</v>
       </c>
       <c r="L64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.5</v>
       </c>
       <c r="M64" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.5</v>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
         <v>7</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M81" si="21">AVERAGE(I69:L69)</f>
+        <f t="shared" ref="M69:M81" si="22">AVERAGE(I69:L69)</f>
         <v>8.25</v>
       </c>
       <c r="O69" s="12" t="s">
@@ -9490,7 +9490,7 @@
         <v>2</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T79" si="22">AVERAGE(P69:S69)</f>
+        <f t="shared" ref="T69:T79" si="23">AVERAGE(P69:S69)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -9541,15 +9541,15 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="Q70">
-        <f t="shared" ref="Q70:S70" si="23">AVERAGE(Q67:Q69)</f>
+        <f t="shared" ref="Q70:S70" si="24">AVERAGE(Q67:Q69)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="R70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="S70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="T70" s="16">
@@ -9593,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.25</v>
       </c>
       <c r="O71" s="12"/>
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.5</v>
       </c>
     </row>
@@ -9647,19 +9647,19 @@
         <v>6.833333333333333</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:F73" si="24">AVERAGE(C67:C72)</f>
+        <f t="shared" ref="C73:F73" si="25">AVERAGE(C67:C72)</f>
         <v>4.166666666666667</v>
       </c>
       <c r="D73">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="E73">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.166666666666667</v>
       </c>
       <c r="F73" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.416666666666667</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -9670,15 +9670,15 @@
         <v>3</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:L73" si="25">AVERAGE(J67:J72)</f>
+        <f t="shared" ref="J73:L73" si="26">AVERAGE(J67:J72)</f>
         <v>7.166666666666667</v>
       </c>
       <c r="K73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.5</v>
       </c>
       <c r="L73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="M73" s="16">
@@ -9737,7 +9737,7 @@
         <v>2</v>
       </c>
       <c r="M76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.25</v>
       </c>
       <c r="O76" s="12" t="s">
@@ -9756,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="T76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.75</v>
       </c>
     </row>
@@ -9796,7 +9796,7 @@
         <v>6</v>
       </c>
       <c r="M77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.25</v>
       </c>
       <c r="O77" s="12" t="s">
@@ -9815,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="T77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.5</v>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
         <v>7</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78:F81" si="26">ROUND(AVERAGE(B78:E78),2)</f>
+        <f t="shared" ref="F78:F81" si="27">ROUND(AVERAGE(B78:E78),2)</f>
         <v>5.25</v>
       </c>
       <c r="H78" s="12" t="s">
@@ -9855,7 +9855,7 @@
         <v>6</v>
       </c>
       <c r="M78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.5</v>
       </c>
       <c r="O78" s="12" t="s">
@@ -9874,7 +9874,7 @@
         <v>2</v>
       </c>
       <c r="T78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.25</v>
       </c>
     </row>
@@ -9895,7 +9895,7 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.25</v>
       </c>
       <c r="H79" s="12" t="s">
@@ -9914,7 +9914,7 @@
         <v>2</v>
       </c>
       <c r="M79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.5</v>
       </c>
       <c r="O79" s="12" t="s">
@@ -9925,19 +9925,19 @@
         <v>4.333333333333333</v>
       </c>
       <c r="Q79">
-        <f t="shared" ref="Q79:S79" si="27">AVERAGE(Q76:Q78)</f>
+        <f t="shared" ref="Q79:S79" si="28">AVERAGE(Q76:Q78)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="R79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="S79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="T79" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.5</v>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
         <v>5</v>
       </c>
       <c r="F81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="H81" s="12" t="s">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.25</v>
       </c>
       <c r="O81" s="12"/>
@@ -10032,19 +10032,19 @@
         <v>6.666666666666667</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:F82" si="28">AVERAGE(C76:C81)</f>
+        <f t="shared" ref="C82:F82" si="29">AVERAGE(C76:C81)</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="D82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.5</v>
       </c>
       <c r="E82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.166666666666667</v>
       </c>
       <c r="F82" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.416666666666667</v>
       </c>
       <c r="H82" s="12" t="s">
@@ -10055,19 +10055,19 @@
         <v>3.83</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:M82" si="29">ROUND(AVERAGE(J76:J81),2)</f>
+        <f t="shared" ref="J82:M82" si="30">ROUND(AVERAGE(J76:J81),2)</f>
         <v>6.17</v>
       </c>
       <c r="K82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.5</v>
       </c>
       <c r="L82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.33</v>
       </c>
       <c r="M82" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
     </row>
@@ -10083,8 +10083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB982B07-8910-9042-ACC0-AC94CF8828C4}">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11658,7 +11658,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="E73" s="18">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(E67:E72)</f>
         <v>4.166666666666667</v>
       </c>
       <c r="F73" s="19">
